--- a/data/request_data/jky_request_data.xlsx
+++ b/data/request_data/jky_request_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="436">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>except</t>
   </si>
   <si>
+    <t>global_variable</t>
+  </si>
+  <si>
     <t>data-1</t>
   </si>
   <si>
@@ -49,13 +52,16 @@
     <t>登录</t>
   </si>
   <si>
-    <t>{"type":"employee","identityType":1,"ip":"0.0.0.0","account":"15300000000","password":"Abc123!","assistant":false}</t>
+    <t>{"type":"employee","identityType":1,"ip":"0.0.0.0","account":"15300000000","password":"88888888","assistant":false}</t>
   </si>
   <si>
     <t>$.msg:成功
 $.code:0</t>
   </si>
   <si>
+    <t>$.data.token:global_token</t>
+  </si>
+  <si>
     <t>data-2</t>
   </si>
   <si>
@@ -71,7 +77,10 @@
     <t>获取员工信息</t>
   </si>
   <si>
-    <t>token=${token}</t>
+    <t>token=${global_token}</t>
+  </si>
+  <si>
+    <t>$.data.employeeId:global_employee_id</t>
   </si>
   <si>
     <t>data-4</t>
@@ -1225,9 +1234,6 @@
   </si>
   <si>
     <t>{"pageNum":1,"pageSize":10,"studentStatuses":[1110,1140,1150,1120,1130,1160],"year":2020,"term":"暑","subjects":["数学"],"grades":["六年级"],"classTypes":["极趣班","极思班","极智班","极客班","极客A班","极客蓝队班","五四极趣班","五四极思班","五四极智班","新生","人教班","八人精品"],"schoolAreaIds":[3104,2371,2389,2400,3069,3099,2397,2398,3044,3054,3063,2369,2385,2386,2388,2399,2401]}</t>
-  </si>
-  <si>
-    <t>global_variable</t>
   </si>
   <si>
     <t>knowledge_data_1</t>
@@ -1375,8 +1381,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1394,17 +1400,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1417,11 +1429,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1441,46 +1476,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1489,6 +1495,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1507,6 +1521,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1517,22 +1538,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,7 +1559,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,7 +1589,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1577,43 +1637,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,19 +1703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1655,85 +1733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,6 +1750,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1762,11 +1783,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1786,17 +1813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1812,30 +1833,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1844,6 +1841,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1852,10 +1858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1864,145 +1870,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2358,24 +2361,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="13.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="25.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="125.583333333333" customWidth="1"/>
+    <col min="5" max="5" width="130.5" customWidth="1"/>
     <col min="6" max="6" width="31.3166666666667" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2394,90 +2398,99 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2532,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2528,142 +2541,142 @@
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:6">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2702,10 +2715,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2714,594 +2727,594 @@
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:6">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:6">
       <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="1:6">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:6">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:6">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:6">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:6">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:6">
       <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
         <v>106</v>
       </c>
-      <c r="B19" t="s">
-        <v>103</v>
-      </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:6">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:6">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:6">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="40.5" spans="1:6">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="1:6">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" ht="81" spans="1:6">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="121.5" spans="1:6">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="121.5" spans="1:6">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="121.5" spans="1:6">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:6">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:6">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
-        <v>147</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:6">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="54" spans="1:6">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3352,87 +3365,87 @@
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
         <v>166</v>
       </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>163</v>
-      </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3467,13 +3480,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3482,275 +3495,275 @@
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="40.5" spans="1:6">
       <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" t="s">
-        <v>180</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" t="s">
         <v>198</v>
       </c>
-      <c r="B7" t="s">
-        <v>195</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:6">
       <c r="A12" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:6">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" ht="54" spans="1:6">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:6">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:6">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3791,7 +3804,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3800,750 +3813,750 @@
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:6">
       <c r="A12" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:6">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:6">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:6">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:6">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C18" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:6">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:6">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:6">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:6">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B23" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C23" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:6">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:6">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B25" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:6">
       <c r="A26" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:6">
       <c r="A27" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B27" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C27" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:6">
       <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" t="s">
         <v>326</v>
       </c>
-      <c r="B28" t="s">
-        <v>323</v>
-      </c>
       <c r="C28" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:6">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B29" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:6">
       <c r="A30" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B30" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C30" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:6">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:6">
       <c r="A32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" t="s">
         <v>340</v>
       </c>
-      <c r="B32" t="s">
-        <v>337</v>
-      </c>
       <c r="C32" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" ht="54" spans="1:6">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C33" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" ht="54" spans="1:6">
       <c r="A34" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C34" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:6">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C35" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" ht="54" spans="1:6">
       <c r="A36" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C36" t="s">
+        <v>357</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:6">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B37" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C37" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:6">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C38" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C39" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:6">
       <c r="A40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" t="s">
         <v>367</v>
       </c>
-      <c r="B40" t="s">
-        <v>364</v>
-      </c>
       <c r="C40" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="1:6">
       <c r="A41" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" ht="40.5" spans="1:6">
       <c r="A42" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C42" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:6">
       <c r="A43" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:6">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C44" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" ht="54" spans="1:6">
       <c r="A45" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C45" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4557,8 +4570,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4592,222 +4605,217 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>389</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3"/>
+        <v>398</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="D4" t="s">
-        <v>400</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D6" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6"/>
+        <v>395</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" t="s">
         <v>409</v>
       </c>
-      <c r="B7" t="s">
-        <v>407</v>
-      </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="D8" t="s">
-        <v>415</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
+        <v>420</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C10" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
+        <v>423</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="40.5" spans="1:6">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C11" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
+        <v>426</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:6">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C12" t="s">
-        <v>427</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
+        <v>429</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>433</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/data/request_data/jky_request_data.xlsx
+++ b/data/request_data/jky_request_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="system_setting" sheetId="5" r:id="rId5"/>
     <sheet name="statistics_report" sheetId="6" r:id="rId6"/>
     <sheet name="knowledge" sheetId="7" r:id="rId7"/>
+    <sheet name="jyy_message" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="496">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +64,9 @@
   </si>
   <si>
     <t>data-2</t>
+  </si>
+  <si>
+    <t>jky-9</t>
   </si>
   <si>
     <t>{"type":"employee","identityType":1,"ip":"0.0.0.0","account":"15300000002","password":"${universal_password}","assistant":false}</t>
@@ -1372,6 +1376,188 @@
   </si>
   <si>
     <t>$.data:global_knowledge_id</t>
+  </si>
+  <si>
+    <t>message_data_1</t>
+  </si>
+  <si>
+    <t>jyy_message_1</t>
+  </si>
+  <si>
+    <t>查询系统消息设置（默认）</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>$.msg:成功
+$.code:0
+$..type:CLASS_IN:contain
+$..identifier:S0002:contain</t>
+  </si>
+  <si>
+    <t>$.data.list[0].id:global_sys_msg_id</t>
+  </si>
+  <si>
+    <t>message_data_2</t>
+  </si>
+  <si>
+    <t>查询系统消息设置（按入班提醒）</t>
+  </si>
+  <si>
+    <t>{"status":null,"type":"CLASS_IN","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>$.msg:成功
+$.code:0
+$.data.list[0].type:CLASS_IN</t>
+  </si>
+  <si>
+    <t>message_data_3</t>
+  </si>
+  <si>
+    <t>查询系统消息设置（按启用）</t>
+  </si>
+  <si>
+    <t>{"status":1,"type":null,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_4</t>
+  </si>
+  <si>
+    <t>jyy_message_4</t>
+  </si>
+  <si>
+    <t>禁用消息设置</t>
+  </si>
+  <si>
+    <t>{"id":${global_sys_msg_id},"status":2}</t>
+  </si>
+  <si>
+    <t>message_data_5</t>
+  </si>
+  <si>
+    <t>启用消息设置</t>
+  </si>
+  <si>
+    <t>{"id":${global_sys_msg_id},"status":1}</t>
+  </si>
+  <si>
+    <t>message_data_6</t>
+  </si>
+  <si>
+    <t>jyy_message_7</t>
+  </si>
+  <si>
+    <t>查询自定义消息（默认）</t>
+  </si>
+  <si>
+    <t>message_data_7</t>
+  </si>
+  <si>
+    <t>查询自定义消息（关键字筛选）</t>
+  </si>
+  <si>
+    <t>{"keyWord":"JYY00001","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_8</t>
+  </si>
+  <si>
+    <t>查询自定义消息（类型(图片)筛选）</t>
+  </si>
+  <si>
+    <t>{"keyWord":"","contentType":"PICTURE","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_9</t>
+  </si>
+  <si>
+    <t>查询自定义消息（提醒方式（气泡）筛选）</t>
+  </si>
+  <si>
+    <t>{"keyWord":"","contentType":null,"reminder":"BUBBLE","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_10</t>
+  </si>
+  <si>
+    <t>查询自定义消息（状态（已发送））</t>
+  </si>
+  <si>
+    <t>{"keyWord":"","contentType":null,"reminder":null,"sendStatus":true,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_11</t>
+  </si>
+  <si>
+    <t>查询自定义消息（发送时间）</t>
+  </si>
+  <si>
+    <t>{"keyWord":"","contentType":null,"reminder":null,"sendStatus":null,"sendBeginDate":"2020-07-15 00:00:00","sendEndDate":"2020-12-17 23:59:59","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_12</t>
+  </si>
+  <si>
+    <t>jyy_message_10</t>
+  </si>
+  <si>
+    <t>新增文本消息</t>
+  </si>
+  <si>
+    <t>{"identifier":"huang${random_str}","name":"黄强的消息${random_str}","contentType":"TEXT","reminder":"BUBBLE","content":"&lt;p&gt;哈哈哈哈${random_str}&lt;/p&gt;","terminal":"APP","roleIds":[],"receiverIds":[8223],"saveDeadline":"2021-12-31 00:00:00","showDeadline":"2021-12-31 00:00:00"}</t>
+  </si>
+  <si>
+    <t>$.data:global_ctm_msg_id</t>
+  </si>
+  <si>
+    <t>message_data_13</t>
+  </si>
+  <si>
+    <t>jyy_message_17</t>
+  </si>
+  <si>
+    <t>查询我的未读消息</t>
+  </si>
+  <si>
+    <t>{"type":"","readStatus":2,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_14</t>
+  </si>
+  <si>
+    <t>查询我的未读消息（入班提醒筛选）</t>
+  </si>
+  <si>
+    <t>{"readStatus":2,"type":"CLASS_IN","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_15</t>
+  </si>
+  <si>
+    <t>查询我的已读消息</t>
+  </si>
+  <si>
+    <t>{"readStatus":1,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_16</t>
+  </si>
+  <si>
+    <t>查询我的已读消息（入班提醒筛选）</t>
+  </si>
+  <si>
+    <t>{"readStatus":1,"type":"CLASS_IN","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>message_data_17</t>
+  </si>
+  <si>
+    <t>查询我的全部消息</t>
+  </si>
+  <si>
+    <t>{"readStatus":null,"pageNum":1,"pageSize":10}</t>
   </si>
 </sst>
 </file>
@@ -1379,9 +1565,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -1407,9 +1593,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1426,6 +1627,53 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1452,70 +1700,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,16 +1716,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1559,7 +1745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1571,7 +1757,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,13 +1787,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1613,31 +1877,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,7 +1889,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,85 +1913,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1750,6 +1936,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1783,17 +1993,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1809,15 +2013,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1841,15 +2036,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1858,10 +2044,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1870,142 +2056,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2363,10 +2552,10 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2427,13 +2616,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -2441,36 +2630,36 @@
     </row>
     <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -2478,19 +2667,19 @@
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2503,13 +2692,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.8916666666667" customWidth="1"/>
     <col min="2" max="2" width="18.775" customWidth="1"/>
@@ -2519,7 +2708,7 @@
     <col min="6" max="6" width="18.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2532,25 +2721,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -2558,16 +2750,16 @@
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
@@ -2576,16 +2768,16 @@
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -2593,16 +2785,16 @@
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -2610,16 +2802,16 @@
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -2627,16 +2819,16 @@
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -2644,16 +2836,16 @@
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -2661,19 +2853,19 @@
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -2689,13 +2881,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21.4416666666667" customWidth="1"/>
@@ -2705,7 +2897,7 @@
     <col min="6" max="6" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2715,31 +2907,34 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -2747,19 +2942,19 @@
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -2767,19 +2962,19 @@
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -2787,19 +2982,19 @@
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -2807,19 +3002,19 @@
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -2827,19 +3022,19 @@
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -2847,19 +3042,19 @@
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -2867,19 +3062,19 @@
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -2887,19 +3082,19 @@
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -2907,16 +3102,16 @@
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -2924,16 +3119,16 @@
     </row>
     <row r="12" ht="27" spans="1:6">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -2941,19 +3136,19 @@
     </row>
     <row r="13" ht="121.5" spans="1:6">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
@@ -2961,50 +3156,50 @@
     </row>
     <row r="14" ht="40.5" spans="1:6">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" ht="40.5" spans="1:6">
       <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:6">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -3012,16 +3207,16 @@
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -3029,16 +3224,16 @@
     </row>
     <row r="18" ht="27" spans="1:6">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
@@ -3046,16 +3241,16 @@
     </row>
     <row r="19" ht="27" spans="1:6">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -3063,16 +3258,16 @@
     </row>
     <row r="20" ht="27" spans="1:6">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
@@ -3080,16 +3275,16 @@
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -3097,16 +3292,16 @@
     </row>
     <row r="22" ht="27" spans="1:6">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -3114,16 +3309,16 @@
     </row>
     <row r="23" ht="27" spans="1:6">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
@@ -3131,53 +3326,53 @@
     </row>
     <row r="24" ht="40.5" spans="1:6">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" ht="40.5" spans="1:6">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" ht="81" spans="1:6">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
@@ -3185,19 +3380,19 @@
     </row>
     <row r="27" ht="121.5" spans="1:6">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
@@ -3205,19 +3400,19 @@
     </row>
     <row r="28" ht="121.5" spans="1:6">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>11</v>
@@ -3225,19 +3420,19 @@
     </row>
     <row r="29" ht="121.5" spans="1:6">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
@@ -3245,36 +3440,36 @@
     </row>
     <row r="30" ht="40.5" spans="1:6">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:6">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>11</v>
@@ -3282,16 +3477,16 @@
     </row>
     <row r="32" ht="27" spans="1:6">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>11</v>
@@ -3299,19 +3494,19 @@
     </row>
     <row r="33" ht="54" spans="1:6">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>11</v>
@@ -3327,13 +3522,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="16.225" customWidth="1"/>
@@ -3343,7 +3538,7 @@
     <col min="6" max="6" width="33.225" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3362,90 +3557,93 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3457,13 +3655,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
@@ -3473,297 +3671,300 @@
     <col min="6" max="6" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="40.5" spans="1:6">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:6">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:6">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" ht="54" spans="1:6">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:6">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:6">
       <c r="A16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3775,13 +3976,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
@@ -3791,7 +3992,7 @@
     <col min="6" max="6" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:6">
+    <row r="1" ht="22.5" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3804,25 +4005,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -3830,16 +4034,16 @@
     </row>
     <row r="3" ht="27" spans="1:6">
       <c r="A3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -3847,16 +4051,16 @@
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>11</v>
@@ -3864,16 +4068,16 @@
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -3881,16 +4085,16 @@
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -3898,16 +4102,16 @@
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -3915,16 +4119,16 @@
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -3932,16 +4136,16 @@
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -3949,16 +4153,16 @@
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -3966,16 +4170,16 @@
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -3983,16 +4187,16 @@
     </row>
     <row r="12" ht="27" spans="1:6">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -4000,16 +4204,16 @@
     </row>
     <row r="13" ht="27" spans="1:6">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
@@ -4017,16 +4221,16 @@
     </row>
     <row r="14" ht="27" spans="1:6">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
@@ -4034,16 +4238,16 @@
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -4051,16 +4255,16 @@
     </row>
     <row r="16" ht="27" spans="1:6">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -4068,16 +4272,16 @@
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -4085,16 +4289,16 @@
     </row>
     <row r="18" ht="27" spans="1:6">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>11</v>
@@ -4102,16 +4306,16 @@
     </row>
     <row r="19" ht="27" spans="1:6">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -4119,16 +4323,16 @@
     </row>
     <row r="20" ht="27" spans="1:6">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>11</v>
@@ -4136,16 +4340,16 @@
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -4153,16 +4357,16 @@
     </row>
     <row r="22" ht="27" spans="1:6">
       <c r="A22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>11</v>
@@ -4170,67 +4374,67 @@
     </row>
     <row r="23" ht="40.5" spans="1:6">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:6">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:6">
       <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C25" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:6">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>11</v>
@@ -4238,322 +4442,322 @@
     </row>
     <row r="27" ht="54" spans="1:6">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:6">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:6">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:6">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:6">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:6">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" ht="54" spans="1:6">
       <c r="A33" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" ht="54" spans="1:6">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C34" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:6">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" ht="54" spans="1:6">
       <c r="A36" t="s">
+        <v>356</v>
+      </c>
+      <c r="B36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B36" t="s">
-        <v>356</v>
-      </c>
-      <c r="C36" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:6">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C37" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:6">
       <c r="A38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B38" t="s">
-        <v>359</v>
-      </c>
-      <c r="C38" t="s">
-        <v>364</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:6">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="1:6">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" ht="40.5" spans="1:6">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:6">
       <c r="A43" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C43" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:6">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" ht="54" spans="1:6">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C45" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
@@ -4570,8 +4774,8 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4610,16 +4814,16 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -4627,70 +4831,70 @@
     </row>
     <row r="3" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -4698,50 +4902,50 @@
     </row>
     <row r="7" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="B8" t="s">
-        <v>409</v>
-      </c>
-      <c r="C8" t="s">
-        <v>416</v>
-      </c>
-      <c r="D8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -4749,16 +4953,16 @@
     </row>
     <row r="10" customFormat="1" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -4766,16 +4970,16 @@
     </row>
     <row r="11" customFormat="1" ht="40.5" spans="1:6">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -4783,16 +4987,16 @@
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:6">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -4800,22 +5004,379 @@
     </row>
     <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>435</v>
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
+    <col min="4" max="4" width="40.75" customWidth="1"/>
+    <col min="5" max="5" width="79.5" customWidth="1"/>
+    <col min="6" max="6" width="31.3166666666667" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:7">
+      <c r="A2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:6">
+      <c r="A3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="54" spans="1:6">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:6">
+      <c r="A5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="27" spans="1:6">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="27" spans="1:6">
+      <c r="A8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>462</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="27" spans="1:6">
+      <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="27" spans="1:6">
+      <c r="A10" t="s">
+        <v>466</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" t="s">
+        <v>467</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="27" spans="1:6">
+      <c r="A11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="27" spans="1:6">
+      <c r="A12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>474</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:7">
+      <c r="A13" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:6">
+      <c r="A14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14" t="s">
+        <v>481</v>
+      </c>
+      <c r="C14" t="s">
+        <v>482</v>
+      </c>
+      <c r="E14" t="s">
+        <v>483</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:6">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" t="s">
+        <v>485</v>
+      </c>
+      <c r="E15" t="s">
+        <v>486</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="27" spans="1:6">
+      <c r="A16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="27" spans="1:6">
+      <c r="A17" t="s">
+        <v>490</v>
+      </c>
+      <c r="B17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>492</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="27" spans="1:6">
+      <c r="A18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/request_data/jky_request_data.xlsx
+++ b/data/request_data/jky_request_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="495">
   <si>
     <t>id</t>
   </si>
@@ -53,7 +53,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>{"type":"employee","identityType":1,"ip":"0.0.0.0","account":"15300000000","password":"88888888","assistant":false}</t>
+    <t>{"type":"employee","identityType":1,"ip":"0.0.0.0","account":"15360956010","password":"hq123456","assistant":false}</t>
   </si>
   <si>
     <t>$.msg:成功
@@ -989,11 +989,6 @@
   </si>
   <si>
     <t>{"pageNum":1,"pageSize":10,"year":2020,"term":"暑","schoolAreaIds":[3104,2371,2389,2400,3069,3099,2397,2398,3044,3054,3063,2369,2385,2386,2388,2399,2401],"groups":["school_area_id"]}</t>
-  </si>
-  <si>
-    <t>$.msg:成功
-$.code:0
-$..schoolAreaName:成都468中心校:contain</t>
   </si>
   <si>
     <t>jky_report_data_23</t>
@@ -1565,8 +1560,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1587,7 +1582,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1601,85 +1625,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1700,9 +1647,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1717,7 +1712,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1745,25 +1740,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,97 +1782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1883,7 +1800,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,13 +1854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,13 +1866,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1936,21 +1931,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1993,11 +1973,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2019,6 +2005,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2028,11 +2025,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2044,10 +2039,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2056,145 +2051,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2555,7 +2547,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2721,7 +2713,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2907,10 +2899,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3678,13 +3670,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3978,8 +3970,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4005,7 +3997,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4386,52 +4378,52 @@
         <v>313</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:6">
       <c r="A24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" t="s">
         <v>315</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>316</v>
-      </c>
-      <c r="C24" t="s">
-        <v>317</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>295</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:6">
       <c r="A25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" t="s">
         <v>319</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>320</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E25" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:6">
       <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
         <v>323</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>324</v>
-      </c>
-      <c r="C26" t="s">
-        <v>325</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>295</v>
@@ -4442,220 +4434,220 @@
     </row>
     <row r="27" ht="54" spans="1:6">
       <c r="A27" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27" t="s">
         <v>326</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>327</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:6">
       <c r="A28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C28" t="s">
         <v>330</v>
       </c>
-      <c r="B28" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:6">
       <c r="A29" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C29" t="s">
         <v>333</v>
       </c>
-      <c r="B29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>335</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:6">
       <c r="A30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" t="s">
         <v>336</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>337</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:6">
       <c r="A31" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" t="s">
         <v>340</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>341</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:6">
       <c r="A32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B32" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32" t="s">
         <v>344</v>
       </c>
-      <c r="B32" t="s">
-        <v>341</v>
-      </c>
-      <c r="C32" t="s">
-        <v>345</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" ht="54" spans="1:6">
       <c r="A33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B33" t="s">
         <v>346</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>347</v>
       </c>
-      <c r="C33" t="s">
-        <v>348</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" ht="54" spans="1:6">
       <c r="A34" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" t="s">
         <v>349</v>
       </c>
-      <c r="B34" t="s">
-        <v>347</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E34" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:6">
       <c r="A35" t="s">
+        <v>351</v>
+      </c>
+      <c r="B35" t="s">
         <v>352</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>353</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>355</v>
-      </c>
       <c r="F35" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" ht="54" spans="1:6">
       <c r="A36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" t="s">
         <v>356</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>357</v>
       </c>
-      <c r="C36" t="s">
-        <v>358</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:6">
       <c r="A37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" t="s">
         <v>359</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>360</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:6">
       <c r="A38" t="s">
+        <v>363</v>
+      </c>
+      <c r="B38" t="s">
+        <v>359</v>
+      </c>
+      <c r="C38" t="s">
         <v>364</v>
       </c>
-      <c r="B38" t="s">
-        <v>360</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
+        <v>366</v>
+      </c>
+      <c r="B39" t="s">
         <v>367</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>368</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>182</v>
@@ -4663,101 +4655,101 @@
     </row>
     <row r="40" ht="27" spans="1:6">
       <c r="A40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B40" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" t="s">
         <v>371</v>
       </c>
-      <c r="B40" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="E40" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="1:6">
       <c r="A41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
         <v>311</v>
       </c>
       <c r="C41" t="s">
+        <v>375</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="42" ht="40.5" spans="1:6">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B42" t="s">
         <v>311</v>
       </c>
       <c r="C42" t="s">
+        <v>379</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:6">
       <c r="A43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s">
         <v>311</v>
       </c>
       <c r="C43" t="s">
+        <v>383</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>314</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:6">
       <c r="A44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s">
         <v>307</v>
       </c>
       <c r="C44" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="45" ht="54" spans="1:6">
       <c r="A45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s">
         <v>307</v>
       </c>
       <c r="C45" t="s">
+        <v>390</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
@@ -4814,16 +4806,16 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
       <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" t="s">
         <v>393</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>394</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>395</v>
-      </c>
-      <c r="D2" t="s">
-        <v>396</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>11</v>
@@ -4831,70 +4823,70 @@
     </row>
     <row r="3" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
         <v>397</v>
       </c>
-      <c r="B3" t="s">
-        <v>394</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>398</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
         <v>401</v>
       </c>
-      <c r="B4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>402</v>
       </c>
-      <c r="D4" t="s">
-        <v>403</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" t="s">
         <v>404</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>405</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
         <v>407</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" t="s">
         <v>409</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>410</v>
       </c>
-      <c r="C6" t="s">
-        <v>411</v>
-      </c>
       <c r="D6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -4902,50 +4894,50 @@
     </row>
     <row r="7" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" t="s">
         <v>412</v>
       </c>
-      <c r="B7" t="s">
-        <v>410</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>413</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" t="s">
         <v>416</v>
       </c>
-      <c r="B8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>417</v>
       </c>
-      <c r="D8" t="s">
-        <v>418</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" t="s">
         <v>419</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>420</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -4953,16 +4945,16 @@
     </row>
     <row r="10" customFormat="1" ht="27" spans="1:6">
       <c r="A10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" t="s">
         <v>423</v>
       </c>
-      <c r="B10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -4970,16 +4962,16 @@
     </row>
     <row r="11" customFormat="1" ht="40.5" spans="1:6">
       <c r="A11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" t="s">
         <v>426</v>
       </c>
-      <c r="B11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -4987,16 +4979,16 @@
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:6">
       <c r="A12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" t="s">
         <v>429</v>
       </c>
-      <c r="B12" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -5004,22 +4996,22 @@
     </row>
     <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" t="s">
         <v>432</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>433</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
         <v>435</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -5033,7 +5025,7 @@
   <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5073,73 +5065,70 @@
     </row>
     <row r="2" ht="54" spans="1:7">
       <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
         <v>437</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>438</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>439</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" t="s">
         <v>441</v>
-      </c>
-      <c r="G2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" t="s">
         <v>443</v>
       </c>
-      <c r="B3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>444</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="54" spans="1:6">
       <c r="A4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C4" t="s">
         <v>447</v>
       </c>
-      <c r="B4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>448</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>449</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" t="s">
         <v>450</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>451</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -5147,17 +5136,16 @@
     </row>
     <row r="6" customFormat="1" ht="27" spans="1:6">
       <c r="A6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C6" t="s">
         <v>454</v>
       </c>
-      <c r="B6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>11</v>
@@ -5165,17 +5153,16 @@
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" t="s">
         <v>457</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>458</v>
       </c>
-      <c r="C7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D7"/>
       <c r="E7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -5183,17 +5170,16 @@
     </row>
     <row r="8" customFormat="1" ht="27" spans="1:6">
       <c r="A8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" t="s">
         <v>460</v>
       </c>
-      <c r="B8" t="s">
-        <v>458</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>461</v>
-      </c>
-      <c r="D8"/>
-      <c r="E8" t="s">
-        <v>462</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
@@ -5201,17 +5187,16 @@
     </row>
     <row r="9" customFormat="1" ht="27" spans="1:6">
       <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" t="s">
         <v>463</v>
       </c>
-      <c r="B9" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>464</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9" t="s">
-        <v>465</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -5219,17 +5204,16 @@
     </row>
     <row r="10" customFormat="1" ht="27" spans="1:6">
       <c r="A10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" t="s">
         <v>466</v>
       </c>
-      <c r="B10" t="s">
-        <v>458</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>467</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10" t="s">
-        <v>468</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>11</v>
@@ -5237,17 +5221,16 @@
     </row>
     <row r="11" customFormat="1" ht="27" spans="1:6">
       <c r="A11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C11" t="s">
         <v>469</v>
       </c>
-      <c r="B11" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>470</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11" t="s">
-        <v>471</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -5255,17 +5238,16 @@
     </row>
     <row r="12" customFormat="1" ht="27" spans="1:6">
       <c r="A12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" t="s">
         <v>472</v>
       </c>
-      <c r="B12" t="s">
-        <v>458</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>473</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12" t="s">
-        <v>474</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>11</v>
@@ -5273,109 +5255,106 @@
     </row>
     <row r="13" ht="54" spans="1:7">
       <c r="A13" t="s">
+        <v>474</v>
+      </c>
+      <c r="B13" t="s">
         <v>475</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>476</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
         <v>478</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:6">
       <c r="A14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" t="s">
         <v>480</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>481</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>482</v>
       </c>
-      <c r="E14" t="s">
-        <v>483</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C15" t="s">
         <v>484</v>
       </c>
-      <c r="B15" t="s">
-        <v>481</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>485</v>
       </c>
-      <c r="E15" t="s">
-        <v>486</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="27" spans="1:6">
       <c r="A16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" t="s">
         <v>487</v>
       </c>
-      <c r="B16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>488</v>
       </c>
-      <c r="D16"/>
-      <c r="E16" t="s">
-        <v>489</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="27" spans="1:6">
       <c r="A17" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" t="s">
         <v>490</v>
       </c>
-      <c r="B17" t="s">
-        <v>481</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>491</v>
       </c>
-      <c r="D17"/>
-      <c r="E17" t="s">
-        <v>492</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="27" spans="1:6">
       <c r="A18" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C18" t="s">
         <v>493</v>
       </c>
-      <c r="B18" t="s">
-        <v>481</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>494</v>
       </c>
-      <c r="D18"/>
-      <c r="E18" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/request_data/jky_request_data.xlsx
+++ b/data/request_data/jky_request_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,16 @@
     <sheet name="statistics_report" sheetId="6" r:id="rId6"/>
     <sheet name="knowledge" sheetId="7" r:id="rId7"/>
     <sheet name="jyy_message" sheetId="8" r:id="rId8"/>
+    <sheet name="my_class" sheetId="9" r:id="rId9"/>
+    <sheet name="company-set" sheetId="10" r:id="rId10"/>
+    <sheet name="discount" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="742">
   <si>
     <t>id</t>
   </si>
@@ -53,7 +56,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>{"type":"employee","identityType":1,"ip":"0.0.0.0","account":"15360956010","password":"hq123456","assistant":false}</t>
+    <t>{"type":"employee","identityType":1,"ip":"0.0.0.0","account":"15360956010","password":"88888888","assistant":false}</t>
   </si>
   <si>
     <t>$.msg:成功
@@ -778,6 +781,69 @@
     <t>{"areaName":"","year":2020,"grade":"","subject":"","term":"春","pageSize":10,"pageNum":1}</t>
   </si>
   <si>
+    <t>jky_sys_set_data_17</t>
+  </si>
+  <si>
+    <t>jky_sys_set_8</t>
+  </si>
+  <si>
+    <t>查询学段设置</t>
+  </si>
+  <si>
+    <t>type=phase</t>
+  </si>
+  <si>
+    <t>$.code:0
+$.msg:成功
+$.count:4
+$.data[0].phaseName:小低</t>
+  </si>
+  <si>
+    <t>jky_sys_set_data_18</t>
+  </si>
+  <si>
+    <t>查询年级设置</t>
+  </si>
+  <si>
+    <t>type=grade</t>
+  </si>
+  <si>
+    <t>$.code:0
+$.msg:成功
+$.count:13
+$.data[0].gradeName:零年级</t>
+  </si>
+  <si>
+    <t>jky_sys_set_data_19</t>
+  </si>
+  <si>
+    <t>jky_sys_set_9</t>
+  </si>
+  <si>
+    <t>查询科目设置</t>
+  </si>
+  <si>
+    <t>type=subject</t>
+  </si>
+  <si>
+    <t>$.code:0
+$.msg:成功
+$.count:5
+$.data[0].message:语文</t>
+  </si>
+  <si>
+    <t>jky_sys_set_data_20</t>
+  </si>
+  <si>
+    <t>type=orderTerm</t>
+  </si>
+  <si>
+    <t>$.code:0
+$.msg:成功
+$.count:4
+$.data[0].message:春</t>
+  </si>
+  <si>
     <t>jky_report_data_1</t>
   </si>
   <si>
@@ -1553,6 +1619,698 @@
   </si>
   <si>
     <t>{"readStatus":null,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_1</t>
+  </si>
+  <si>
+    <t>jky_myclass_1</t>
+  </si>
+  <si>
+    <t>查看我的班级列表(默认当前年份)</t>
+  </si>
+  <si>
+    <t>{"year":2020,"classId":null,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_2</t>
+  </si>
+  <si>
+    <t>我的班级列表（任课老师）</t>
+  </si>
+  <si>
+    <t>{"year":2020,"classId":null,"teacherId":9116,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_3</t>
+  </si>
+  <si>
+    <t>我的班级列表（年份）</t>
+  </si>
+  <si>
+    <t>{"year":2019,"classId":null,"teacherId":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_4</t>
+  </si>
+  <si>
+    <t>我的班级列表（学期）</t>
+  </si>
+  <si>
+    <t>{"year":2019,"classId":null,"teacherId":"","term":"暑","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_5</t>
+  </si>
+  <si>
+    <t>我的班级列表（科目）</t>
+  </si>
+  <si>
+    <t>{"year":2019,"classId":null,"teacherId":"","term":"","subject":"数学","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_6</t>
+  </si>
+  <si>
+    <t>我的班级列表（年级）</t>
+  </si>
+  <si>
+    <t>{"year":2019,"classId":null,"teacherId":"","term":"","subject":"","grade":"四年级","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_7</t>
+  </si>
+  <si>
+    <t>我的班级列表（班级简称）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"year":2020,"classId":null,"teacherId":"","term":"","subject":"","grade":"","classAbbreviation":"新生","pageNum":1,"pageSize":10}
+</t>
+  </si>
+  <si>
+    <t>myclass_data_8</t>
+  </si>
+  <si>
+    <t>我的班级列表（组合）</t>
+  </si>
+  <si>
+    <t>{"year":2020,"classId":null,"teacherId":9116,"term":"暑","subject":"数学","grade":"六年级","classAbbreviation":"新生","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_9</t>
+  </si>
+  <si>
+    <t>jky_myclass_7</t>
+  </si>
+  <si>
+    <t>新增沟通记录--新生关怀（所有）</t>
+  </si>
+  <si>
+    <t>{"communicateTypeCode":"newbornCare","newbornCare":{"hobbies":"兴趣1","parentsDemand":"需求1","remark":"备注1","schedule":"安排1","studyHabit":"习惯1","studySituation":"学习1"},"continueCommunicate":{"intention":"","nextTime":"","result":""},"learningFeedback":{"matters":"","remark":"","result":""},"communicateType":"新生关怀","studentName":"${my_class_studentName}","studentId":${my_class_studentId},"directorId":${global_employee_id}}</t>
+  </si>
+  <si>
+    <t>myclass_data_10</t>
+  </si>
+  <si>
+    <t>新增沟通记录--新生关怀（为空）</t>
+  </si>
+  <si>
+    <t>{"communicateTypeCode":"newbornCare","newbornCare":{"hobbies":"","parentsDemand":"","remark":"","schedule":"","studyHabit":"","studySituation":""},"continueCommunicate":{"intention":"","nextTime":"","result":""},"learningFeedback":{"matters":"","remark":"","result":""},"communicateType":"新生关怀","studentName":"${my_class_studentName}","studentId":${my_class_studentId},"directorId":${global_employee_id}}</t>
+  </si>
+  <si>
+    <t>myclass_data_11</t>
+  </si>
+  <si>
+    <t>新增沟通记录--续报意向（高意向）</t>
+  </si>
+  <si>
+    <t>{"communicateTypeCode":"continueCommunicate","newbornCare":{"hobbies":"","parentsDemand":"","remark":"","schedule":"","studyHabit":"","studySituation":""},"continueCommunicate":{"intention":"S(高意向)","nextTime":"2020-09-16","result":"测试测试"},"learningFeedback":{"matters":"","remark":"","result":""},"communicateType":"续报沟通","studentName":"${my_class_studentName}","studentId":${my_class_studentId},"directorId":${global_employee_id}}</t>
+  </si>
+  <si>
+    <t>myclass_data_12</t>
+  </si>
+  <si>
+    <t>新增沟通记录--续报意向（无意向）</t>
+  </si>
+  <si>
+    <t>{"communicateTypeCode":"continueCommunicate","newbornCare":{"hobbies":"","parentsDemand":"","remark":"","schedule":"","studyHabit":"","studySituation":""},"continueCommunicate":{"intention":"C(无意向)","nextTime":"2020-09-16","result":"测试测试"},"learningFeedback":{"matters":"","remark":"","result":""},"communicateType":"续报沟通","studentName":"${my_class_studentName}","studentId":${my_class_studentId},"directorId":${global_employee_id}}</t>
+  </si>
+  <si>
+    <t>myclass_data_13</t>
+  </si>
+  <si>
+    <t>新增沟通记录--学情反馈（所有）</t>
+  </si>
+  <si>
+    <t>{"communicateTypeCode":"learningFeedback","newbornCare":{"hobbies":"","parentsDemand":"","remark":"","schedule":"","studyHabit":"","studySituation":""},"continueCommunicate":{"intention":"","nextTime":"","result":""},"learningFeedback":{"matters":"反馈1","remark":"备注1","result":"结果1"},"communicateType":"学情反馈","studentName":"${my_class_studentName}","studentId":${my_class_studentId},"directorId":${global_employee_id}}</t>
+  </si>
+  <si>
+    <t>myclass_data_14</t>
+  </si>
+  <si>
+    <t>新增沟通记录--学情反馈（为空）</t>
+  </si>
+  <si>
+    <t>{"communicateTypeCode":"learningFeedback","newbornCare":{"hobbies":"","parentsDemand":"","remark":"","schedule":"","studyHabit":"","studySituation":""},"continueCommunicate":{"intention":"","nextTime":"","result":""},"learningFeedback":{"matters":"","remark":"","result":""},"communicateType":"学情反馈","studentName":"${my_class_studentName}","studentId":${my_class_studentId},"directorId":${global_employee_id}}</t>
+  </si>
+  <si>
+    <t>myclass_data_15</t>
+  </si>
+  <si>
+    <t>jky_myclass_10</t>
+  </si>
+  <si>
+    <t>学员列表（默认）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":2020,"courseType":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_16</t>
+  </si>
+  <si>
+    <t>学员列表--在读（自定义时间）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":2020,"courseType":"","startTime":"","endTime":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_17</t>
+  </si>
+  <si>
+    <t>学员列表--在读（年级）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":2020,"courseType":"","startTime":"","endTime":"","attendGrade":"二年级","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_18</t>
+  </si>
+  <si>
+    <t>学员列表--在读（年份）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":2021,"courseType":"","startTime":"","endTime":"","attendGrade":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_19</t>
+  </si>
+  <si>
+    <t>学员列表--在读（学期）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":"","courseType":"","startTime":"","endTime":"","attendGrade":"","term":"秋","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_20</t>
+  </si>
+  <si>
+    <t>学员列表--在读（App激活状态）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":"","courseType":"","startTime":"","endTime":"","attendGrade":"","term":"","appActivate":true,"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_21</t>
+  </si>
+  <si>
+    <t>学员列表--在读（公立学校）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":"","courseType":"","startTime":"","endTime":"","attendGrade":"","term":"","appActivate":"","attendSchoolId":11796,"attendSchoolName":"双桥小学","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_22</t>
+  </si>
+  <si>
+    <t>学员列表--在读（学生姓名）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":"","courseType":"","startTime":"","endTime":"","attendGrade":"","term":"","appActivate":"","attendSchoolId":"","studentName":"章涌坤","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_23</t>
+  </si>
+  <si>
+    <t>学员列表--在读（电话）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":"","courseType":"","startTime":"","endTime":"","attendGrade":"","term":"","appActivate":"","attendSchoolId":"","studentName":"19910202421","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_24</t>
+  </si>
+  <si>
+    <t>学员列表--在读（组合）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1110,"year":2020,"courseType":"","startTime":"2020-07-01 00:00:00","endTime":"2020-07-03 23:59:59","attendGrade":"二年级","term":"暑","appActivate":true,"attendSchoolId":12291,"attendSchoolName":"文武学校","studentName":"李","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>学员列表--结业（组合）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1140,"year":2020,"courseType":"","startTime":"2020-07-01 00:00:00","endTime":"2020-07-03 23:59:59","attendGrade":"二年级","term":"暑","appActivate":true,"attendSchoolId":12291,"attendSchoolName":"文武学校","studentName":"李","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_25</t>
+  </si>
+  <si>
+    <t>学员列表--结业（自定义时间）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1140,"year":2020,"courseType":"","startTime":"2020-07-02 00:00:00","endTime":"2020-07-15 23:59:59","attendGrade":"","term":"暑","appActivate":"","attendSchoolId":"","studentName":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_26</t>
+  </si>
+  <si>
+    <t>学员列表--结业（年级）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1140,"year":2020,"courseType":"","startTime":"","endTime":"","attendGrade":"四年级","term":"暑","appActivate":"","attendSchoolId":"","studentName":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_27</t>
+  </si>
+  <si>
+    <t>学员列表--结业（年份）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1140,"year":2020,"courseType":"","startTime":"","endTime":"","attendGrade":"","term":"暑","appActivate":false,"attendSchoolId":"","studentName":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_28</t>
+  </si>
+  <si>
+    <t>学员列表--结业（学期）</t>
+  </si>
+  <si>
+    <t>myclass_data_29</t>
+  </si>
+  <si>
+    <t>学员列表--结业（App激活状态）</t>
+  </si>
+  <si>
+    <t>myclass_data_30</t>
+  </si>
+  <si>
+    <t>学员列表--结业（公立学校）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1140,"year":2020,"courseType":"","startTime":"","endTime":"","attendGrade":"","term":"暑","appActivate":"","attendSchoolId":12548,"attendSchoolName":"犀浦实验学校","studentName":"","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_31</t>
+  </si>
+  <si>
+    <t>学员列表--结业（学生姓名）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1140,"year":2020,"courseType":"","startTime":"","endTime":"","attendGrade":"","term":"暑","appActivate":"","attendSchoolId":"","studentName":"陈","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>myclass_data_32</t>
+  </si>
+  <si>
+    <t>学员列表--结业（电话）</t>
+  </si>
+  <si>
+    <t>{"schoolAreaIds":[2383,2389,3076,3071,3053,3074,2400,3075,3047,3070,3041,3072,3099,3101,2427,3054,2385,2371,3065,3069,2411,2369,3059,3062,2412,3061,3060,2413,3039,3044,2419,3107,3108,2397,3064,3049,2388,2402,2392,2391,2416,3063,3096,3052,3095,3067,2408,3109,2405,2404,2403,2406,2373,3046,2414,2374,2415,2420,3110,3097,2401,2399,2398,3015,2386,2376,2421,3037,2422,2368,2365,2360,3036,2417,2425,3042,2359,3043,2407,2363,3001,3098,3002,2423,2364,3100,3038,3104,2410],"studentStatus":1140,"year":2020,"courseType":"","startTime":"","endTime":"","attendGrade":"","term":"暑","appActivate":"","attendSchoolId":"","studentName":"19910196569","pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>company-set_data_1</t>
+  </si>
+  <si>
+    <t>jky_company-set_1</t>
+  </si>
+  <si>
+    <t>公司设置列表（停用）</t>
+  </si>
+  <si>
+    <t>{"status":2,"pageSize":10,"pageNum":1,"total":35}</t>
+  </si>
+  <si>
+    <t>company-set_data_2</t>
+  </si>
+  <si>
+    <t>公司设置列表（启用）</t>
+  </si>
+  <si>
+    <t>{"status":1,"pageSize":10,"pageNum":1,"total":0}</t>
+  </si>
+  <si>
+    <t>company-set_data_3</t>
+  </si>
+  <si>
+    <t>jky_company-set_2</t>
+  </si>
+  <si>
+    <t>新增--校区选择重复</t>
+  </si>
+  <si>
+    <t>{"companyName":"测试公司","bankCardNo":"6217003810013000","bankName":"建设银行","remark":"自动化测试","schoolArea":[2383],"address":"四川省-成都市-锦江区","proviceId":"510000","cityId":"510100","areaId":"510104","handleUserName":"刘琴1","handleUserId":311834}</t>
+  </si>
+  <si>
+    <t>$.msg:校区选择重复,请重新选择!
+$.code:-1</t>
+  </si>
+  <si>
+    <t>company-set_data_4</t>
+  </si>
+  <si>
+    <t>jky_company-set_4</t>
+  </si>
+  <si>
+    <t>编辑公司--提交</t>
+  </si>
+  <si>
+    <t>{"companyName":"${company_set_companyName}","bankCardNo":${company_set_bankCardNo},"bankName":"${bankName}","remark":"自动化测试--修改","schoolArea":${company_set_schoolArea},"address":"山东省-济南市-历下区","proviceId":"370000","cityId":"370100","areaId":"370102","handleUserName":"${global_employeeName}","handleUserId":${global_userId},"id":${company_set_Id}}</t>
+  </si>
+  <si>
+    <t>company-set_data_5</t>
+  </si>
+  <si>
+    <t>编辑公司--停用</t>
+  </si>
+  <si>
+    <t>{"id":${company_set_Id},"status":2,"handleUserName":"${global_employeeName}","handleUserId":${global_userId}}</t>
+  </si>
+  <si>
+    <t>company-set_data_6</t>
+  </si>
+  <si>
+    <t>编辑公司--启用</t>
+  </si>
+  <si>
+    <t>{"id":${company_set_Id},"status":1,"handleUserName":"${global_employeeName}","handleUserId":${global_userId}}</t>
+  </si>
+  <si>
+    <t>company-set_data_7</t>
+  </si>
+  <si>
+    <t>jky_company-set_5</t>
+  </si>
+  <si>
+    <t>配置商户号列表--中行</t>
+  </si>
+  <si>
+    <t>{"pageSize":10,"pageNum":1,"schoolAreas":[]}</t>
+  </si>
+  <si>
+    <t>company-set_data_8</t>
+  </si>
+  <si>
+    <t>配置商户号列表--微信</t>
+  </si>
+  <si>
+    <t>{"pageSize":10,"pageNum":1,"total":81,"schoolAreas":[]}</t>
+  </si>
+  <si>
+    <t>company-set_data_9</t>
+  </si>
+  <si>
+    <t>配置商户号列表--支付宝</t>
+  </si>
+  <si>
+    <t>company-set_data_10</t>
+  </si>
+  <si>
+    <t>配置商户号列表--按公司查询</t>
+  </si>
+  <si>
+    <t>{"pageSize":10,"pageNum":1,"total":81,"schoolAreas":[3047]}</t>
+  </si>
+  <si>
+    <t>company-set_data_11</t>
+  </si>
+  <si>
+    <t>配置商户号列表--按校区查询</t>
+  </si>
+  <si>
+    <t>{"pageSize":10,"pageNum":1,"total":1,"schoolAreas":[3052]}</t>
+  </si>
+  <si>
+    <t>company-set_data_12</t>
+  </si>
+  <si>
+    <t>jky_company-set_6</t>
+  </si>
+  <si>
+    <t>配置商户号--中行</t>
+  </si>
+  <si>
+    <t>{"id":${schoolMerchant_Id},"bankType":3,"bocMerchantId":"${bocMerchantId}","softMerchantId":"${softMerchantId}","terminalChecker":["${terminalChecker}"],"handleUserName":"${global_employeeName}","handleUserId":${global_userId}}</t>
+  </si>
+  <si>
+    <t>company-set_data_13</t>
+  </si>
+  <si>
+    <t>配置商户号--微信</t>
+  </si>
+  <si>
+    <t>{"id":${schoolMerchant_Id},"bankType":2,"wechatAppMchId":"1515134961","wechatAppKey":"aea1eaf4e2920e184fa1f238e0a906e7","wechatAppId":"wxce3ddfea994471b9","wechatJsapiMchId":"1515134961","wechatJsapiKey":"aea1eaf4e2920e184fa1f238e0a906e7","wechatJsapiAppId":"wxce0af7dd53397a9f","wechatMiniMchId":"1515134961","wechatMiniKey":"aea1eaf4e2920e184fa1f238e0a906e7","wechatMiniAppid":"wx6bb404c78e0f9be7","handleUserName":"${global_employeeName}","handleUserId":${global_userId}}</t>
+  </si>
+  <si>
+    <t>company-set_data_14</t>
+  </si>
+  <si>
+    <t>配置商户号--支付宝</t>
+  </si>
+  <si>
+    <t>{"id":${schoolMerchant_Id},"bankType":1,"alipayAppId":"123","alipayAppPrivateKey":"456","alipayPublicKey":"789","handleUserName":"${global_employeeName}","handleUserId":${global_userId}}</t>
+  </si>
+  <si>
+    <t>discount_data_1</t>
+  </si>
+  <si>
+    <t>jky_discount_1</t>
+  </si>
+  <si>
+    <t>查看连报优惠列表(默认条件+启用)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"schoolAreaIds":[2371,2389],"enableStatuses":[1],"platforms":["pc","app","applet"],"validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":1}</t>
+  </si>
+  <si>
+    <t>discount_data_2</t>
+  </si>
+  <si>
+    <t>查看连报优惠列表(输入优惠搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"discountName":"优惠","schoolAreaIds":[2371,2389],"enableStatuses":[1],"platforms":["pc","app","applet"],"validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":1}</t>
+  </si>
+  <si>
+    <t>discount_data_3</t>
+  </si>
+  <si>
+    <t>查看连报优惠列表(按时间搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"discountName":"优惠","schoolAreaIds":[2371,2389],"enableStatuses":[1],"platforms":["pc","app","applet"],"beginDate":"2020-08-27","endDate":"2020-08-27","validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":1}</t>
+  </si>
+  <si>
+    <t>discount_data_4</t>
+  </si>
+  <si>
+    <t>查看连报优惠列表(清空所有条件搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"enableStatuses":[1],"discountType":1}</t>
+  </si>
+  <si>
+    <t>discount_data_5</t>
+  </si>
+  <si>
+    <t>jky_discount_6</t>
+  </si>
+  <si>
+    <t>查看常规优惠列表(默认条件+启用)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"platforms":["pc","app","applet"],"validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":2}</t>
+  </si>
+  <si>
+    <t>discount_data_6</t>
+  </si>
+  <si>
+    <t>查看常规优惠列表(输入优惠搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"discountName":"测试","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"platforms":["pc","app","applet"],"validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":2}</t>
+  </si>
+  <si>
+    <t>discount_data_7</t>
+  </si>
+  <si>
+    <t>查看常规优惠列表(按时间搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"discountName":"测试","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"platforms":["pc","app","applet"],"beginDate":"2020-08-28","endDate":"2020-08-28","validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":2}</t>
+  </si>
+  <si>
+    <t>discount_data_8</t>
+  </si>
+  <si>
+    <t>查看常规优惠列表(清空所有条件搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"discountName":"测试","enableStatuses":[2],"validStatuses":["notStart","onGoing","expired"],"discountType":2}</t>
+  </si>
+  <si>
+    <t>discount_data_9</t>
+  </si>
+  <si>
+    <t>jky_discount_11</t>
+  </si>
+  <si>
+    <t>精品优惠列表(默认条件+启用)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"platforms":["pc","app","applet"],"validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":6}</t>
+  </si>
+  <si>
+    <t>discount_data_10</t>
+  </si>
+  <si>
+    <t>精品优惠列表(输入优惠搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"discountName":"测试","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"platforms":["pc","app","applet"],"validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":6}</t>
+  </si>
+  <si>
+    <t>discount_data_11</t>
+  </si>
+  <si>
+    <t>精品优惠列表(按时间搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"platforms":["pc","app","applet"],"beginDate":"2020-08-28","endDate":"2020-09-30","validStatuses":["notStart","onGoing"],"subjects":["语文","英语","物理","数学","化学"],"grades":["零年级","一年级","二年级","三年级","四年级","五年级","六年级","七年级","八年级","九年级","高一","高二","高三"],"terms":["春","暑","秋","寒"],"discountType":6}</t>
+  </si>
+  <si>
+    <t>discount_data_12</t>
+  </si>
+  <si>
+    <t>精品优惠列表(清空所有条件搜索)</t>
+  </si>
+  <si>
+    <t>{"pageNum":1,"pageSize":10,"enableStatuses":[2],"discountType":6}</t>
+  </si>
+  <si>
+    <t>discount_data_13</t>
+  </si>
+  <si>
+    <t>jky_discount_16</t>
+  </si>
+  <si>
+    <t>现金优惠券列表(默认条件+启用)</t>
+  </si>
+  <si>
+    <t>{"type":"CASH","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>discount_data_14</t>
+  </si>
+  <si>
+    <t>现金优惠券列表(输入优惠搜索)</t>
+  </si>
+  <si>
+    <t>{"type":"CASH","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"name":"德阳","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_15</t>
+  </si>
+  <si>
+    <t>现金优惠券列表(按时间搜索)</t>
+  </si>
+  <si>
+    <t>{"type":"CASH","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"beginDate":"2020-09-01","endDate":"2020-09-30","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_16</t>
+  </si>
+  <si>
+    <t>现金优惠券列表(清空所有条件搜索)</t>
+  </si>
+  <si>
+    <t>{"type":"CASH","schoolAreaIds":[],"enableStatuses":[2],"issueTypes":[],"platforms":[],"validStatuses":[],"pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_17</t>
+  </si>
+  <si>
+    <t>jky_discount_23</t>
+  </si>
+  <si>
+    <t>满减优惠券列表(默认条件+启用)</t>
+  </si>
+  <si>
+    <t>{"type":"FULL_REDUCE","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>discount_data_18</t>
+  </si>
+  <si>
+    <t>满减优惠券列表(输入优惠搜索)</t>
+  </si>
+  <si>
+    <t>{"type":"FULL_REDUCE","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"name":"测试","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_19</t>
+  </si>
+  <si>
+    <t>满减优惠券列表(按时间搜索)</t>
+  </si>
+  <si>
+    <t>{"type":"FULL_REDUCE","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"beginDate":"2020-08-29","endDate":"2020-09-30","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_20</t>
+  </si>
+  <si>
+    <t>满减优惠券列表(清空所有条件搜索)</t>
+  </si>
+  <si>
+    <t>{"type":"FULL_REDUCE","schoolAreaIds":[],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":[],"pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_21</t>
+  </si>
+  <si>
+    <t>jky_discount_32</t>
+  </si>
+  <si>
+    <t>{"type":"EXPAND","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"pageNum":1,"pageSize":10}</t>
+  </si>
+  <si>
+    <t>discount_data_22</t>
+  </si>
+  <si>
+    <t>{"type":"EXPAND","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"name":"测试","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_23</t>
+  </si>
+  <si>
+    <t>{"type":"EXPAND","schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"enableStatuses":[1],"issueTypes":[],"platforms":[],"validStatuses":["notStart","onGoing"],"beginDate":"2020-09-01","endDate":"2020-09-03","pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_24</t>
+  </si>
+  <si>
+    <t>{"type":"EXPAND","schoolAreaIds":[],"enableStatuses":[2],"issueTypes":[],"platforms":[],"validStatuses":[],"pageSize":10,"pageNum":1}</t>
+  </si>
+  <si>
+    <t>discount_data_25</t>
+  </si>
+  <si>
+    <t>jky_discount_41</t>
+  </si>
+  <si>
+    <t>转介绍领取列表（默认条件）</t>
+  </si>
+  <si>
+    <t>{"keyword":"","gradeNos":[],"status":1,"bigAreaIds":[],"schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"pageSize":10,"pageNum":1,"areaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001]}</t>
+  </si>
+  <si>
+    <t>discount_data_26</t>
+  </si>
+  <si>
+    <t>转介绍领取列表（输入搜索条件）</t>
+  </si>
+  <si>
+    <t>{"keyword":"测试","gradeNos":[],"status":1,"bigAreaIds":[],"schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"pageSize":10,"pageNum":1,"areaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001]}</t>
+  </si>
+  <si>
+    <t>discount_data_27</t>
+  </si>
+  <si>
+    <t>转介绍领取列表（停用）</t>
+  </si>
+  <si>
+    <t>{"keyword":"","gradeNos":[],"status":0,"bigAreaIds":[],"schoolAreaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001],"pageSize":10,"pageNum":1,"areaIds":[2427,3101,2360,2417,2383,3070,3100,3076,2389,3130,3071,3043,3059,3060,2401,2415,2420,3061,3038,2364,2385,3069,3065,3074,3053,3075,2371,2400,3062,2412,3099,3041,2369,3104,2425,3126,2411,2413,3125,3127,3047,3054,3124,3002,2402,3072,2423,2419,3044,3107,2410,2392,3039,2391,2397,3052,3095,2416,2407,2408,3108,3063,3049,3096,3064,2388,3109,2373,3110,3046,2403,2404,2405,2363,3097,3067,2406,2374,2414,2422,2386,2365,2359,3098,2376,2368,2421,3037,3042,3036,2398,3015,2399,3001]}</t>
   </si>
 </sst>
 </file>
@@ -1560,12 +2318,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,8 +2339,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1595,109 +2383,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1718,10 +2405,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1740,7 +2505,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,7 +2583,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,103 +2631,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,13 +2673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,37 +2685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,21 +2708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1969,6 +2719,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2005,6 +2764,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2014,20 +2782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2039,10 +2804,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2051,147 +2816,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2544,10 +3312,10 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2596,7 +3364,7 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G2" t="s">
@@ -2616,7 +3384,7 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2633,7 +3401,7 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
@@ -2653,7 +3421,7 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2670,13 +3438,941 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="20.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="20.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="35.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="18.1083333333333" customWidth="1"/>
+    <col min="5" max="5" width="71.775" customWidth="1"/>
+    <col min="6" max="6" width="17.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="C4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="81" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="27" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E9" t="s">
+        <v>639</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E11" t="s">
+        <v>644</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:6">
+      <c r="A12" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="54" spans="1:6">
+      <c r="A13" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C13" t="s">
+        <v>650</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="94.5" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="C15" t="s">
+        <v>656</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="35.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="27.775" customWidth="1"/>
+    <col min="5" max="5" width="71.775" customWidth="1"/>
+    <col min="6" max="6" width="17.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:7">
+      <c r="A2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E2" t="s">
+        <v>661</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="81" spans="1:6">
+      <c r="A3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C3" t="s">
+        <v>663</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="94.5" spans="1:7">
+      <c r="A4" t="s">
+        <v>665</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="175.5" spans="1:6">
+      <c r="A6" t="s">
+        <v>671</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C6" t="s">
+        <v>673</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="175.5" spans="1:6">
+      <c r="A7" t="s">
+        <v>675</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C7" t="s">
+        <v>676</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="189" spans="1:6">
+      <c r="A8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C9" t="s">
+        <v>682</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" t="s">
+        <v>684</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C10" t="s">
+        <v>686</v>
+      </c>
+      <c r="E10" t="s">
+        <v>687</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="175.5" spans="1:6">
+      <c r="A11" t="s">
+        <v>688</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C11" t="s">
+        <v>689</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="175.5" spans="1:6">
+      <c r="A12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C12" t="s">
+        <v>692</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="1:6">
+      <c r="A13" t="s">
+        <v>694</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C13" t="s">
+        <v>695</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:6">
+      <c r="A14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C14" t="s">
+        <v>699</v>
+      </c>
+      <c r="E14" t="s">
+        <v>700</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="135" spans="1:6">
+      <c r="A15" t="s">
+        <v>701</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C15" t="s">
+        <v>702</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="135" spans="1:6">
+      <c r="A16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C16" t="s">
+        <v>705</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:6">
+      <c r="A17" t="s">
+        <v>707</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="C17" t="s">
+        <v>708</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="121.5" spans="1:6">
+      <c r="A18" t="s">
+        <v>710</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C18" t="s">
+        <v>712</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:6">
+      <c r="A19" t="s">
+        <v>714</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C19" t="s">
+        <v>715</v>
+      </c>
+      <c r="E19" t="s">
+        <v>716</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:6">
+      <c r="A20" t="s">
+        <v>717</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C20" t="s">
+        <v>718</v>
+      </c>
+      <c r="E20" t="s">
+        <v>719</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:6">
+      <c r="A21" t="s">
+        <v>720</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="C21" t="s">
+        <v>721</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="121.5" spans="1:6">
+      <c r="A22" t="s">
+        <v>723</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C22" t="s">
+        <v>712</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="121.5" spans="1:6">
+      <c r="A23" t="s">
+        <v>726</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C23" t="s">
+        <v>715</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="135" spans="1:6">
+      <c r="A24" t="s">
+        <v>728</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C24" t="s">
+        <v>718</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:6">
+      <c r="A25" t="s">
+        <v>730</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="C25" t="s">
+        <v>721</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:6">
+      <c r="A26" t="s">
+        <v>732</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C26" t="s">
+        <v>734</v>
+      </c>
+      <c r="E26" t="s">
+        <v>735</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="216" spans="1:6">
+      <c r="A27" t="s">
+        <v>736</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C27" t="s">
+        <v>737</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="216" spans="1:6">
+      <c r="A28" t="s">
+        <v>739</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C28" t="s">
+        <v>740</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2696,7 +4392,7 @@
     <col min="2" max="2" width="18.775" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="46.875" customWidth="1"/>
-    <col min="5" max="5" width="76.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="76.375" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.775" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2713,7 +4409,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2736,7 +4432,7 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2753,8 +4449,8 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2771,7 +4467,7 @@
       <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2788,7 +4484,7 @@
       <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2805,7 +4501,7 @@
       <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2822,7 +4518,7 @@
       <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2836,10 +4532,10 @@
       <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2856,10 +4552,10 @@
       <c r="D9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2884,8 +4580,8 @@
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21.4416666666667" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="36" style="2" customWidth="1"/>
-    <col min="5" max="5" width="83.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36" style="4" customWidth="1"/>
+    <col min="5" max="5" width="83.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2899,10 +4595,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2922,13 +4618,13 @@
       <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2942,13 +4638,13 @@
       <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2962,13 +4658,13 @@
       <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2982,13 +4678,13 @@
       <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3002,13 +4698,13 @@
       <c r="C6" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3022,13 +4718,13 @@
       <c r="C7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3042,13 +4738,13 @@
       <c r="C8" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3062,13 +4758,13 @@
       <c r="C9" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3082,13 +4778,13 @@
       <c r="C10" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3102,10 +4798,10 @@
       <c r="C11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3119,10 +4815,10 @@
       <c r="C12" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3133,16 +4829,16 @@
       <c r="B13" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3156,10 +4852,10 @@
       <c r="C14" t="s">
         <v>93</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3173,10 +4869,10 @@
       <c r="C15" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3190,10 +4886,10 @@
       <c r="C16" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3207,10 +4903,10 @@
       <c r="C17" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3224,10 +4920,10 @@
       <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3241,10 +4937,10 @@
       <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3258,10 +4954,10 @@
       <c r="C20" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3275,10 +4971,10 @@
       <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3292,10 +4988,10 @@
       <c r="C22" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3309,10 +5005,10 @@
       <c r="C23" t="s">
         <v>123</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3326,10 +5022,10 @@
       <c r="C24" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3343,10 +5039,10 @@
       <c r="C25" t="s">
         <v>130</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3357,16 +5053,16 @@
       <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3377,16 +5073,16 @@
       <c r="B27" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3397,16 +5093,16 @@
       <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3417,16 +5113,16 @@
       <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3440,10 +5136,10 @@
       <c r="C30" t="s">
         <v>147</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3457,13 +5153,13 @@
       <c r="C31" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3477,10 +5173,10 @@
       <c r="C32" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3494,13 +5190,13 @@
       <c r="C33" t="s">
         <v>159</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3517,7 +5213,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -3566,7 +5262,7 @@
       <c r="D2" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3583,7 +5279,7 @@
       <c r="D3" t="s">
         <v>168</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3600,7 +5296,7 @@
       <c r="D4" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3614,10 +5310,10 @@
       <c r="C5" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3631,10 +5327,10 @@
       <c r="C6" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3647,19 +5343,21 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="39.125" customWidth="1"/>
-    <col min="5" max="5" width="52" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52" style="4" customWidth="1"/>
     <col min="6" max="6" width="55" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3670,13 +5368,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3693,13 +5391,13 @@
       <c r="B2" t="s">
         <v>184</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D2" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3710,14 +5408,14 @@
       <c r="B3" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>188</v>
       </c>
       <c r="D3" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3728,13 +5426,13 @@
       <c r="B4" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3745,13 +5443,13 @@
       <c r="B5" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D5" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3762,13 +5460,13 @@
       <c r="B6" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3779,13 +5477,13 @@
       <c r="B7" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3796,13 +5494,13 @@
       <c r="B8" t="s">
         <v>199</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3813,13 +5511,13 @@
       <c r="B9" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3830,13 +5528,13 @@
       <c r="B10" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3847,13 +5545,13 @@
       <c r="B11" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3864,13 +5562,13 @@
       <c r="B12" t="s">
         <v>220</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3881,13 +5579,13 @@
       <c r="B13" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3898,13 +5596,13 @@
       <c r="B14" t="s">
         <v>224</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3915,13 +5613,13 @@
       <c r="B15" t="s">
         <v>224</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3932,13 +5630,13 @@
       <c r="B16" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3949,14 +5647,82 @@
       <c r="B17" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="18" ht="54" spans="1:6">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:6">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" ht="54" spans="1:6">
+      <c r="A20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" ht="54" spans="1:6">
+      <c r="A21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3970,7 +5736,7 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -3980,7 +5746,7 @@
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="68.25" customWidth="1"/>
     <col min="4" max="4" width="25.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="125.583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="125.583333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3997,7 +5763,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -4009,749 +5775,749 @@
     </row>
     <row r="2" ht="27" spans="1:6">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:6">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:6">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" t="s">
         <v>265</v>
       </c>
-      <c r="B9" t="s">
-        <v>248</v>
-      </c>
       <c r="C9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" ht="27" spans="1:6">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:6">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:6">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C14" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>282</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:6">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:6">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:6">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" ht="27" spans="1:6">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F19" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:6">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C20" t="s">
-        <v>302</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B21" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F21" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:6">
       <c r="A22" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B22" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C22" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F22" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" ht="40.5" spans="1:6">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B23" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C23" t="s">
-        <v>312</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F23" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:6">
       <c r="A24" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C24" t="s">
-        <v>316</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>317</v>
+        <v>333</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="25" ht="54" spans="1:6">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="B25" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C25" t="s">
-        <v>320</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>317</v>
+        <v>337</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:6">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B26" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C26" t="s">
-        <v>324</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F26" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:6">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>327</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>317</v>
+        <v>344</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:6">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="B28" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
-        <v>330</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>317</v>
+        <v>347</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:6">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B29" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C29" t="s">
-        <v>333</v>
-      </c>
-      <c r="E29" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:6">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="B30" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>317</v>
+        <v>354</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="31" ht="54" spans="1:6">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B31" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C31" t="s">
-        <v>341</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>317</v>
+        <v>358</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:6">
       <c r="A32" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B32" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>317</v>
+        <v>361</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="33" ht="54" spans="1:6">
       <c r="A33" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="B33" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>317</v>
+        <v>364</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="34" ht="54" spans="1:6">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C34" t="s">
-        <v>349</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>317</v>
+        <v>366</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:6">
       <c r="A35" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C35" t="s">
-        <v>353</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>317</v>
+        <v>370</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="36" ht="54" spans="1:6">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B36" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C36" t="s">
-        <v>357</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>317</v>
+        <v>374</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="37" ht="27" spans="1:6">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C37" t="s">
-        <v>360</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>362</v>
+        <v>377</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="38" ht="27" spans="1:6">
       <c r="A38" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B38" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C38" t="s">
-        <v>364</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>362</v>
+        <v>381</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="F39" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:6">
       <c r="A40" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B40" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>373</v>
+        <v>388</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="41" ht="40.5" spans="1:6">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B41" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C41" t="s">
-        <v>375</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>377</v>
+        <v>392</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="42" ht="40.5" spans="1:6">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>381</v>
+        <v>396</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="43" ht="54" spans="1:6">
       <c r="A43" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C43" t="s">
-        <v>383</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F43" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="44" ht="40.5" spans="1:6">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B44" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C44" t="s">
-        <v>386</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>388</v>
+        <v>403</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="45" ht="54" spans="1:6">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C45" t="s">
-        <v>390</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F45" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4806,212 +6572,212 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>399</v>
+        <v>415</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C4" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:7">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C6" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="63" customHeight="1" spans="1:6">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="D7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>414</v>
+        <v>430</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="61" customHeight="1" spans="1:6">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
-        <v>417</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>414</v>
+        <v>434</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="9" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C10" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="40.5" spans="1:6">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>426</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="40.5" spans="1:6">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="B12" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>429</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:7">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -5065,296 +6831,910 @@
     </row>
     <row r="2" ht="54" spans="1:7">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>440</v>
+        <v>456</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="G2" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C3" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E3" t="s">
-        <v>444</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>445</v>
+        <v>461</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="54" spans="1:6">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="B4" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>440</v>
+        <v>465</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:6">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="1" ht="27" spans="1:6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:6">
       <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E7" t="s">
         <v>456</v>
       </c>
-      <c r="B7" t="s">
-        <v>457</v>
-      </c>
-      <c r="C7" t="s">
-        <v>458</v>
-      </c>
-      <c r="E7" t="s">
-        <v>439</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="27" spans="1:6">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B8" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="E8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F8" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="27" spans="1:6">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="E9" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="27" spans="1:6">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C10" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="E10" t="s">
-        <v>467</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="27" spans="1:6">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="E11" t="s">
-        <v>470</v>
-      </c>
-      <c r="F11" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="27" spans="1:6">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="E12" t="s">
-        <v>473</v>
-      </c>
-      <c r="F12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" ht="54" spans="1:7">
       <c r="A13" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="F13" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:6">
       <c r="A14" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C14" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="E14" t="s">
-        <v>482</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:6">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="B15" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C15" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="E15" t="s">
-        <v>485</v>
-      </c>
-      <c r="F15" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="27" spans="1:6">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C16" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="E16" t="s">
-        <v>488</v>
-      </c>
-      <c r="F16" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="27" spans="1:6">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="B17" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C17" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="E17" t="s">
-        <v>491</v>
-      </c>
-      <c r="F17" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="27" spans="1:6">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C18" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="E18" t="s">
-        <v>494</v>
-      </c>
-      <c r="F18" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="35.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="27.775" customWidth="1"/>
+    <col min="5" max="5" width="71.775" customWidth="1"/>
+    <col min="6" max="6" width="17.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:7">
+      <c r="A2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="27" spans="1:6">
+      <c r="A3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:7">
+      <c r="A4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" t="s">
+        <v>513</v>
+      </c>
+      <c r="C5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" ht="27" spans="1:6">
+      <c r="A6" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:6">
+      <c r="A7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" t="s">
+        <v>513</v>
+      </c>
+      <c r="C7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:6">
+      <c r="A8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="40.5" spans="1:6">
+      <c r="A9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="1:6">
+      <c r="A10" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C10" t="s">
+        <v>539</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="94.5" spans="1:6">
+      <c r="A11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C11" t="s">
+        <v>542</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="108" spans="1:6">
+      <c r="A12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="108" spans="1:6">
+      <c r="A13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" t="s">
+        <v>548</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="94.5" spans="1:6">
+      <c r="A14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C14" t="s">
+        <v>551</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="94.5" spans="1:6">
+      <c r="A15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" t="s">
+        <v>554</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="108" spans="1:6">
+      <c r="A16" t="s">
+        <v>556</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C16" t="s">
+        <v>558</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="108" spans="1:6">
+      <c r="A17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" t="s">
+        <v>561</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="121.5" spans="1:6">
+      <c r="A18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C18" t="s">
+        <v>564</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="121.5" spans="1:6">
+      <c r="A19" t="s">
+        <v>566</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C19" t="s">
+        <v>567</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="121.5" spans="1:6">
+      <c r="A20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" t="s">
+        <v>570</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="121.5" spans="1:6">
+      <c r="A21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" t="s">
+        <v>573</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="135" spans="1:6">
+      <c r="A22" t="s">
+        <v>575</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C22" t="s">
+        <v>576</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="135" spans="1:6">
+      <c r="A23" t="s">
+        <v>578</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C23" t="s">
+        <v>579</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="135" spans="1:6">
+      <c r="A24" t="s">
+        <v>581</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="148.5" spans="1:6">
+      <c r="A25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C25" t="s">
+        <v>585</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" ht="148.5" spans="1:6">
+      <c r="A26" t="s">
+        <v>584</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C26" t="s">
+        <v>587</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" ht="148.5" spans="1:6">
+      <c r="A27" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C27" t="s">
+        <v>590</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="148.5" spans="1:6">
+      <c r="A28" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C28" t="s">
+        <v>593</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" ht="135" spans="1:6">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C29" t="s">
+        <v>596</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" ht="148.5" spans="1:6">
+      <c r="A30" t="s">
+        <v>598</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C30" t="s">
+        <v>599</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" ht="135" spans="1:6">
+      <c r="A31" t="s">
+        <v>600</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" t="s">
+        <v>601</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" ht="135" spans="1:6">
+      <c r="A32" t="s">
+        <v>602</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C32" t="s">
+        <v>603</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" ht="135" spans="1:6">
+      <c r="A33" t="s">
+        <v>605</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C33" t="s">
+        <v>606</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" ht="135" spans="1:6">
+      <c r="A34" t="s">
+        <v>608</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C34" t="s">
+        <v>609</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>11</v>
       </c>
     </row>
